--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avprod/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEBE74D-D84C-D945-AF4A-1CA05A73461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF3CAA-924B-9449-9591-3F87F5948905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t>OK / Description erreur</t>
-  </si>
-  <si>
     <t>Fichier</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Affichage du canapé avec sa photo, son texte alternatif, son nom, son prix, sa description, les couleurs possibles</t>
   </si>
   <si>
-    <t>Vérification nombre d'article et de la couleur</t>
-  </si>
-  <si>
     <t>cart.js</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>confirmation.js</t>
   </si>
   <si>
-    <t>Affichage page confirmation avec numéro de commande</t>
-  </si>
-  <si>
-    <t>Choix de la couleur du produit</t>
-  </si>
-  <si>
     <t>Affichage du nombre et du prix total de la commande</t>
   </si>
   <si>
@@ -100,21 +88,6 @@
     <t>Au clic sur "ajout au panier", le produit est sauvegardé dans le localstorage du navigateur</t>
   </si>
   <si>
-    <t>Action sur le menu déroulant contenant les différents coloris</t>
-  </si>
-  <si>
-    <t>Message d'erreur si les valeurs sont vides ou inexactes</t>
-  </si>
-  <si>
-    <t>Message d'ajout au panier ok et sauvegarde de l'item dans le localstorage</t>
-  </si>
-  <si>
-    <t>Déroulé des couleurs existantes sur chaque modèle + choix de la valeur</t>
-  </si>
-  <si>
-    <t>Affichage en alerte si pas de couleur selectionnée ou pas le bon nombre d'articles</t>
-  </si>
-  <si>
     <t>Ouvrir la page panier du site web dans le navigateur</t>
   </si>
   <si>
@@ -136,28 +109,76 @@
     <t>Suppression de l'article complet, rechargement de la page et du prix et nombre d'article</t>
   </si>
   <si>
-    <t>Modification de la quantité d'un article, rechargement de la page et du prix et du nombre d'article dans le total. Message d'erreur si les nombre ne correspond pas</t>
-  </si>
-  <si>
-    <t>Affichage de l'ensemble des produits du localstorage avec le bon nombre et la bonne couleur si des articles sont enregistrés sinon message</t>
-  </si>
-  <si>
-    <t>Entrée de valeurs dans les champs du formulaire par les utilisateurs</t>
-  </si>
-  <si>
-    <t>Si le format est respecter, entrée correct. Sinon message d'erreur</t>
-  </si>
-  <si>
-    <t>Clique sur le bouton commander !</t>
-  </si>
-  <si>
     <t>Ouverture de la page confirmation dans le navigateur</t>
   </si>
   <si>
-    <t>Si les entrées du formulaire sont correctes, redirection vers la page confirmation de commande, sinon message d'erreur et impossibilité d'envoyer la commande</t>
-  </si>
-  <si>
     <t>Affichage du numéro de commande</t>
+  </si>
+  <si>
+    <t>Choix nombre d'article et de la couleur</t>
+  </si>
+  <si>
+    <t>Affichage de la couleur et du nombre de produit</t>
+  </si>
+  <si>
+    <t>Affichage du nombre et de la couleur / Affichage en alerte si pas de couleur selectionnée ou pas le bon nombre d'articles</t>
+  </si>
+  <si>
+    <t>Affichage de l'ensemble des produits du localstorage avec le bon nombre et la bonne couleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si articles alors affichage de ceux ci / Affichage d'un message qui renvois à l'accueil </t>
+  </si>
+  <si>
+    <t>Prix total et nombre de l'ensemble des articles / Message qui renvois à l'accueil si le panier est vide</t>
+  </si>
+  <si>
+    <t>Modification de la quantité d'un article, rechargement de la page et du prix et du nombre d'article dans le total.</t>
+  </si>
+  <si>
+    <t>Modification du nombre sur l'article et donc du prix total et du nombre d'article dans le panier / Message d'erreur si pas le bon nombre</t>
+  </si>
+  <si>
+    <t>Formulaire completer avec les informations clients</t>
+  </si>
+  <si>
+    <t>Redirection vers la page confirmation de commande</t>
+  </si>
+  <si>
+    <t>Redirection vers la page confirmation de commande / Message d'erreur du formulaire et impossibilité d'envoyer la commande</t>
+  </si>
+  <si>
+    <t>Numéro de commande qui s'affiche / Pas de numéro de commande</t>
+  </si>
+  <si>
+    <t>Affichage des différents canapé disponible / Pas de produit (erreur api)</t>
+  </si>
+  <si>
+    <t>Affichage du canapé / Pas d'article, pas d'option, pas d'ajout possible (api)</t>
+  </si>
+  <si>
+    <t>Entrer de valeurs dans les champs du formulaire par les utilisateurs</t>
+  </si>
+  <si>
+    <t>Clique sur le bouton commander</t>
+  </si>
+  <si>
+    <t>Message confirmation d'ajout au panier et sauvegarde de l'item dans le localstorage</t>
+  </si>
+  <si>
+    <t>Message confirmation d'ajout au panier / Message d'erreur sur la quantité ou la couleur</t>
+  </si>
+  <si>
+    <t>Affichage du nombre d'article du produit et de la couleur selectionnée dans le menu déroulant</t>
+  </si>
+  <si>
+    <t>Article supprimer de la page panier / Message qui renvois à l'accueil si plus d'article dans le panier</t>
+  </si>
+  <si>
+    <t>Formulaire prêt à être envoyer / Erreur sur les champs non ou mal remplis</t>
+  </si>
+  <si>
+    <t>Confirmation de commande</t>
   </si>
 </sst>
 </file>
@@ -200,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -374,69 +395,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -450,21 +413,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,12 +432,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -710,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -725,10 +673,10 @@
     <col min="6" max="6" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -743,311 +691,225 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+    <row r="2" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avprod/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF3CAA-924B-9449-9591-3F87F5948905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A013C7-D3E4-9E4E-907D-5BF61D17DB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,24 +52,12 @@
     <t>product.js</t>
   </si>
   <si>
-    <t>Affichage d'un produit spécifique</t>
-  </si>
-  <si>
     <t>Affichage du canapé avec sa photo, son texte alternatif, son nom, son prix, sa description, les couleurs possibles</t>
   </si>
   <si>
     <t>cart.js</t>
   </si>
   <si>
-    <t>Affichage des articles du local storage sur la page panier</t>
-  </si>
-  <si>
-    <t>Suppression d'un article</t>
-  </si>
-  <si>
-    <t>Modification du nombre d'article</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vérification formulaire </t>
   </si>
   <si>
@@ -91,21 +79,9 @@
     <t>Ouvrir la page panier du site web dans le navigateur</t>
   </si>
   <si>
-    <t>Ouvrir une page product avec l'id de l'article dans le navigateur</t>
-  </si>
-  <si>
-    <t>Sur la page panier, le total affiche le nombre d'article et le prix total de la commande</t>
-  </si>
-  <si>
     <t>Addition des différents aticles du panier et de leur prix</t>
   </si>
   <si>
-    <t>Clique sur le bouton supprimer dans un article du panier</t>
-  </si>
-  <si>
-    <t>Clique sur la quantité d'un article du panier ( plus ou moins )</t>
-  </si>
-  <si>
     <t>Suppression de l'article complet, rechargement de la page et du prix et nombre d'article</t>
   </si>
   <si>
@@ -115,15 +91,9 @@
     <t>Affichage du numéro de commande</t>
   </si>
   <si>
-    <t>Choix nombre d'article et de la couleur</t>
-  </si>
-  <si>
     <t>Affichage de la couleur et du nombre de produit</t>
   </si>
   <si>
-    <t>Affichage du nombre et de la couleur / Affichage en alerte si pas de couleur selectionnée ou pas le bon nombre d'articles</t>
-  </si>
-  <si>
     <t>Affichage de l'ensemble des produits du localstorage avec le bon nombre et la bonne couleur</t>
   </si>
   <si>
@@ -136,9 +106,6 @@
     <t>Modification de la quantité d'un article, rechargement de la page et du prix et du nombre d'article dans le total.</t>
   </si>
   <si>
-    <t>Modification du nombre sur l'article et donc du prix total et du nombre d'article dans le panier / Message d'erreur si pas le bon nombre</t>
-  </si>
-  <si>
     <t>Formulaire completer avec les informations clients</t>
   </si>
   <si>
@@ -154,9 +121,6 @@
     <t>Affichage des différents canapé disponible / Pas de produit (erreur api)</t>
   </si>
   <si>
-    <t>Affichage du canapé / Pas d'article, pas d'option, pas d'ajout possible (api)</t>
-  </si>
-  <si>
     <t>Entrer de valeurs dans les champs du formulaire par les utilisateurs</t>
   </si>
   <si>
@@ -172,13 +136,49 @@
     <t>Affichage du nombre d'article du produit et de la couleur selectionnée dans le menu déroulant</t>
   </si>
   <si>
-    <t>Article supprimer de la page panier / Message qui renvois à l'accueil si plus d'article dans le panier</t>
-  </si>
-  <si>
     <t>Formulaire prêt à être envoyer / Erreur sur les champs non ou mal remplis</t>
   </si>
   <si>
     <t>Confirmation de commande</t>
+  </si>
+  <si>
+    <t>Une page montrant un produit spécifique</t>
+  </si>
+  <si>
+    <t>Une page panier dans laquelle s'affiche les produits choisis</t>
+  </si>
+  <si>
+    <t>Ouvrir une page produit d'un article</t>
+  </si>
+  <si>
+    <t>Choix nombre de produit et de la couleur</t>
+  </si>
+  <si>
+    <t>Suppression d'un produit</t>
+  </si>
+  <si>
+    <t>Modification du nombre de produit</t>
+  </si>
+  <si>
+    <t>Clique sur la quantité d'un produit du panier ( plus ou moins )</t>
+  </si>
+  <si>
+    <t>Sur la page panier, le total affiche le nombre de produit et le prix total de la commande</t>
+  </si>
+  <si>
+    <t>Clique sur le bouton supprimer dans un produit du panier</t>
+  </si>
+  <si>
+    <t>Affichage du nombre et de la couleur / Affichage en alerte si pas de couleur selectionnée ou pas le bon nombre de produit</t>
+  </si>
+  <si>
+    <t>Affichage du canapé / Pas de produit, pas d'option, pas d'ajout possible (api)</t>
+  </si>
+  <si>
+    <t>Produit supprimer de la page panier / Message qui renvois à l'accueil si plus de produit dans le panier</t>
+  </si>
+  <si>
+    <t>Modification du nombre sur l'article et donc du prix total et du nombre de produit dans le panier / Message d'erreur si pas le bon nombre</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -719,16 +719,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,16 +739,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -759,16 +759,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -796,19 +796,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -816,19 +816,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -836,19 +836,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -856,19 +856,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -876,19 +876,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -896,19 +896,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
